--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_30.07.24d_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_30.07.24d_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -503,13 +503,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>51.88</v>
+      </c>
+      <c r="H2" t="n">
+        <v>51.89</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -528,7 +536,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>287.36</v>
+        <v>51.03</v>
       </c>
       <c r="H3" t="n">
-        <v>287.39</v>
+        <v>52.13</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02999999999997272</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.01</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -575,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>288.49</v>
+        <v>53.06</v>
       </c>
       <c r="H4" t="n">
-        <v>289.42</v>
+        <v>53.56</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.9300000000000068</v>
+        <v>-0.5</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.32</v>
+        <v>-0.9400000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -593,16 +601,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -611,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>290.2</v>
+        <v>53.49</v>
       </c>
       <c r="H5" t="n">
-        <v>290.84</v>
+        <v>53.6</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6399999999999864</v>
+        <v>0.1099999999999994</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -640,7 +650,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -649,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>130.5</v>
+        <v>54.01</v>
       </c>
       <c r="H6" t="n">
-        <v>131.3</v>
+        <v>53.76</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8000000000000114</v>
+        <v>0.25</v>
       </c>
       <c r="J6" t="n">
-        <v>0.61</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -687,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>132.31</v>
+        <v>60.16</v>
       </c>
       <c r="H7" t="n">
-        <v>131.52</v>
+        <v>59.92</v>
       </c>
       <c r="I7" t="n">
-        <v>0.789999999999992</v>
+        <v>0.2399999999999949</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -705,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -725,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>132.68</v>
+        <v>60.56</v>
       </c>
       <c r="H8" t="n">
-        <v>132.61</v>
+        <v>60.32</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06999999999999318</v>
+        <v>0.240000000000002</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
@@ -743,7 +753,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -754,7 +764,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -763,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>132.33</v>
+        <v>60.81</v>
       </c>
       <c r="H9" t="n">
-        <v>132.8</v>
+        <v>60.56</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4699999999999989</v>
+        <v>0.25</v>
       </c>
       <c r="J9" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="10">
@@ -781,7 +791,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -792,7 +802,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -801,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>133.13</v>
+        <v>60.58</v>
       </c>
       <c r="H10" t="n">
-        <v>133.56</v>
+        <v>60.76</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4300000000000068</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
@@ -819,7 +829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -839,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>132.68</v>
+        <v>362</v>
       </c>
       <c r="H11" t="n">
-        <v>133.35</v>
+        <v>367.23</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6699999999999875</v>
+        <v>5.230000000000018</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="12">
@@ -857,7 +867,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -877,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6727.5</v>
+        <v>368.93</v>
       </c>
       <c r="H12" t="n">
-        <v>6719.5</v>
+        <v>370.65</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>-1.71999999999997</v>
       </c>
       <c r="J12" t="n">
-        <v>0.12</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="13">
@@ -895,7 +905,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -906,7 +916,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -915,16 +925,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6721</v>
+        <v>372.74</v>
       </c>
       <c r="H13" t="n">
-        <v>6745.5</v>
+        <v>372.73</v>
       </c>
       <c r="I13" t="n">
-        <v>24.5</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="J13" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -933,7 +943,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -953,16 +963,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6775</v>
+        <v>1412.4</v>
       </c>
       <c r="H14" t="n">
-        <v>6804</v>
+        <v>1407.6</v>
       </c>
       <c r="I14" t="n">
-        <v>-29</v>
+        <v>4.800000000000182</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.43</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="15">
@@ -971,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -982,7 +992,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -991,16 +1001,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>6790</v>
+        <v>1422</v>
       </c>
       <c r="H15" t="n">
-        <v>6795</v>
+        <v>1418.2</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>3.799999999999955</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="16">
@@ -1009,7 +1019,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1029,16 +1039,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6809.5</v>
+        <v>1421.6</v>
       </c>
       <c r="H16" t="n">
-        <v>6793.5</v>
+        <v>1419.8</v>
       </c>
       <c r="I16" t="n">
-        <v>16</v>
+        <v>1.799999999999955</v>
       </c>
       <c r="J16" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="17">
@@ -1047,7 +1057,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1067,16 +1077,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>497.35</v>
+        <v>1418</v>
       </c>
       <c r="H17" t="n">
-        <v>502.6</v>
+        <v>1419.2</v>
       </c>
       <c r="I17" t="n">
-        <v>5.25</v>
+        <v>1.200000000000045</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
@@ -1085,7 +1095,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1096,7 +1106,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1105,16 +1115,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>505.9</v>
+        <v>1418</v>
       </c>
       <c r="H18" t="n">
-        <v>502.8</v>
+        <v>1420</v>
       </c>
       <c r="I18" t="n">
-        <v>3.099999999999966</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0.61</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="19">
@@ -1123,7 +1133,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1143,16 +1153,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>507.5</v>
+        <v>1421.8</v>
       </c>
       <c r="H19" t="n">
-        <v>509.05</v>
+        <v>1419.8</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.550000000000011</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.31</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="20">
@@ -1161,7 +1171,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1172,7 +1182,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1181,16 +1191,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>511.2</v>
+        <v>0.09546</v>
       </c>
       <c r="H20" t="n">
-        <v>510.75</v>
+        <v>0.09594</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4499999999999886</v>
+        <v>0.0004799999999999943</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -1199,7 +1209,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1219,16 +1229,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>513.3</v>
+        <v>0.0965</v>
       </c>
       <c r="H21" t="n">
-        <v>511.85</v>
+        <v>0.09686</v>
       </c>
       <c r="I21" t="n">
-        <v>1.449999999999932</v>
+        <v>-0.0003599999999999992</v>
       </c>
       <c r="J21" t="n">
-        <v>0.28</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1247,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1257,16 +1267,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>509.95</v>
+        <v>130.5</v>
       </c>
       <c r="H22" t="n">
-        <v>511.4</v>
+        <v>131.3</v>
       </c>
       <c r="I22" t="n">
-        <v>1.449999999999989</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="J22" t="n">
-        <v>0.28</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="23">
@@ -1275,7 +1285,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1295,16 +1305,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1033.4</v>
+        <v>132.31</v>
       </c>
       <c r="H23" t="n">
-        <v>1028.2</v>
+        <v>131.52</v>
       </c>
       <c r="I23" t="n">
-        <v>5.200000000000045</v>
+        <v>0.789999999999992</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24">
@@ -1313,7 +1323,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1333,16 +1343,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1037.8</v>
+        <v>132.68</v>
       </c>
       <c r="H24" t="n">
-        <v>1036.4</v>
+        <v>132.61</v>
       </c>
       <c r="I24" t="n">
-        <v>1.399999999999864</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="J24" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25">
@@ -1351,7 +1361,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1362,7 +1372,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1371,16 +1381,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1042.6</v>
+        <v>132.33</v>
       </c>
       <c r="H25" t="n">
-        <v>1048.8</v>
+        <v>132.8</v>
       </c>
       <c r="I25" t="n">
-        <v>-6.200000000000045</v>
+        <v>0.4699999999999989</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="26">
@@ -1389,7 +1399,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1400,7 +1410,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1409,16 +1419,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1044</v>
+        <v>133.13</v>
       </c>
       <c r="H26" t="n">
-        <v>1047.4</v>
+        <v>133.56</v>
       </c>
       <c r="I26" t="n">
-        <v>3.400000000000091</v>
+        <v>-0.4300000000000068</v>
       </c>
       <c r="J26" t="n">
-        <v>0.33</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="27">
@@ -1427,7 +1437,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C27" t="b">
@@ -1447,16 +1457,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>124.92</v>
+        <v>132.68</v>
       </c>
       <c r="H27" t="n">
-        <v>124.9</v>
+        <v>133.35</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.01999999999999602</v>
+        <v>0.6699999999999875</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.02</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28">
@@ -1476,7 +1486,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1485,16 +1495,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>125.62</v>
+        <v>124.92</v>
       </c>
       <c r="H28" t="n">
-        <v>125.06</v>
+        <v>124.9</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5600000000000023</v>
+        <v>-0.01999999999999602</v>
       </c>
       <c r="J28" t="n">
-        <v>0.45</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="29">
@@ -1523,16 +1533,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>125.9</v>
+        <v>125.62</v>
       </c>
       <c r="H29" t="n">
-        <v>126.36</v>
+        <v>125.06</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.4599999999999937</v>
+        <v>0.5600000000000023</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.37</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="30">
@@ -1561,16 +1571,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>126.94</v>
+        <v>125.9</v>
       </c>
       <c r="H30" t="n">
-        <v>126.78</v>
+        <v>126.36</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1599999999999966</v>
+        <v>-0.4599999999999937</v>
       </c>
       <c r="J30" t="n">
-        <v>0.13</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="31">
@@ -1599,16 +1609,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>127.54</v>
+        <v>126.94</v>
       </c>
       <c r="H31" t="n">
-        <v>127.1</v>
+        <v>126.78</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4400000000000119</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="J31" t="n">
-        <v>0.34</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="32">
@@ -1637,16 +1647,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>127.6</v>
+        <v>127.54</v>
       </c>
       <c r="H32" t="n">
-        <v>127.06</v>
+        <v>127.1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.539999999999992</v>
+        <v>0.4400000000000119</v>
       </c>
       <c r="J32" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="33">
@@ -1655,7 +1665,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C33" t="b">
@@ -1675,16 +1685,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>164.18</v>
+        <v>127.6</v>
       </c>
       <c r="H33" t="n">
-        <v>164.06</v>
+        <v>127.06</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1200000000000045</v>
+        <v>0.539999999999992</v>
       </c>
       <c r="J33" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="34">
@@ -1693,7 +1703,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C34" t="b">
@@ -1704,7 +1714,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1713,16 +1723,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>162.82</v>
+        <v>6727.5</v>
       </c>
       <c r="H34" t="n">
-        <v>164.06</v>
+        <v>6719.5</v>
       </c>
       <c r="I34" t="n">
-        <v>1.240000000000009</v>
+        <v>8</v>
       </c>
       <c r="J34" t="n">
-        <v>0.76</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="35">
@@ -1731,7 +1741,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C35" t="b">
@@ -1742,7 +1752,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1751,16 +1761,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>165.68</v>
+        <v>6721</v>
       </c>
       <c r="H35" t="n">
-        <v>164.96</v>
+        <v>6745.5</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7199999999999989</v>
+        <v>24.5</v>
       </c>
       <c r="J35" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="36">
@@ -1769,7 +1779,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C36" t="b">
@@ -1789,16 +1799,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>165.82</v>
+        <v>6775</v>
       </c>
       <c r="H36" t="n">
-        <v>165.18</v>
+        <v>6804</v>
       </c>
       <c r="I36" t="n">
-        <v>0.6399999999999864</v>
+        <v>-29</v>
       </c>
       <c r="J36" t="n">
-        <v>0.39</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="37">
@@ -1807,7 +1817,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C37" t="b">
@@ -1818,7 +1828,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1827,16 +1837,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>166.66</v>
+        <v>6790</v>
       </c>
       <c r="H37" t="n">
-        <v>166.86</v>
+        <v>6795</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.2000000000000171</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.12</v>
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1845,16 +1855,18 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1863,16 +1875,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>166.5</v>
+        <v>6809.5</v>
       </c>
       <c r="H38" t="n">
-        <v>165.86</v>
+        <v>6793.5</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.6399999999999864</v>
+        <v>16</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.38</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="39">
@@ -2109,7 +2121,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C45" t="b">
@@ -2120,7 +2132,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2129,16 +2141,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1412.4</v>
+        <v>2980.6</v>
       </c>
       <c r="H45" t="n">
-        <v>1407.6</v>
+        <v>2988.65</v>
       </c>
       <c r="I45" t="n">
-        <v>4.800000000000182</v>
+        <v>8.050000000000182</v>
       </c>
       <c r="J45" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="46">
@@ -2147,7 +2159,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C46" t="b">
@@ -2158,7 +2170,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2167,16 +2179,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1422</v>
+        <v>2977.3</v>
       </c>
       <c r="H46" t="n">
-        <v>1418.2</v>
+        <v>2982.25</v>
       </c>
       <c r="I46" t="n">
-        <v>3.799999999999955</v>
+        <v>4.949999999999818</v>
       </c>
       <c r="J46" t="n">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="47">
@@ -2185,7 +2197,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C47" t="b">
@@ -2205,16 +2217,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1421.6</v>
+        <v>2992.25</v>
       </c>
       <c r="H47" t="n">
-        <v>1419.8</v>
+        <v>2995.7</v>
       </c>
       <c r="I47" t="n">
-        <v>1.799999999999955</v>
+        <v>-3.449999999999818</v>
       </c>
       <c r="J47" t="n">
-        <v>0.13</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="48">
@@ -2223,7 +2235,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C48" t="b">
@@ -2234,7 +2246,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2243,16 +2255,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1418</v>
+        <v>3007.8</v>
       </c>
       <c r="H48" t="n">
-        <v>1419.2</v>
+        <v>3010.15</v>
       </c>
       <c r="I48" t="n">
-        <v>1.200000000000045</v>
+        <v>-2.349999999999909</v>
       </c>
       <c r="J48" t="n">
-        <v>0.08</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="49">
@@ -2261,7 +2273,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C49" t="b">
@@ -2272,7 +2284,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2281,16 +2293,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1418</v>
+        <v>3020</v>
       </c>
       <c r="H49" t="n">
-        <v>1420</v>
+        <v>3013</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J49" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="50">
@@ -2299,7 +2311,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C50" t="b">
@@ -2319,16 +2331,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1421.8</v>
+        <v>3020.9</v>
       </c>
       <c r="H50" t="n">
-        <v>1419.8</v>
+        <v>3015.85</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>5.050000000000182</v>
       </c>
       <c r="J50" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="51">
@@ -2337,7 +2349,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C51" t="b">
@@ -2357,16 +2369,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>60.16</v>
+        <v>3022.65</v>
       </c>
       <c r="H51" t="n">
-        <v>59.92</v>
+        <v>3013.35</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2399999999999949</v>
+        <v>9.300000000000182</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="52">
@@ -2375,7 +2387,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C52" t="b">
@@ -2395,16 +2407,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>60.56</v>
+        <v>164.18</v>
       </c>
       <c r="H52" t="n">
-        <v>60.32</v>
+        <v>164.06</v>
       </c>
       <c r="I52" t="n">
-        <v>0.240000000000002</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4</v>
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -2413,7 +2425,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C53" t="b">
@@ -2424,7 +2436,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2433,16 +2445,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>60.81</v>
+        <v>162.82</v>
       </c>
       <c r="H53" t="n">
-        <v>60.56</v>
+        <v>164.06</v>
       </c>
       <c r="I53" t="n">
-        <v>0.25</v>
+        <v>1.240000000000009</v>
       </c>
       <c r="J53" t="n">
-        <v>0.41</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="54">
@@ -2451,7 +2463,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C54" t="b">
@@ -2462,7 +2474,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2471,16 +2483,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>60.58</v>
+        <v>165.68</v>
       </c>
       <c r="H54" t="n">
-        <v>60.76</v>
+        <v>164.96</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1799999999999997</v>
+        <v>0.7199999999999989</v>
       </c>
       <c r="J54" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="55">
@@ -2489,7 +2501,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C55" t="b">
@@ -2509,16 +2521,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>56.27</v>
+        <v>165.82</v>
       </c>
       <c r="H55" t="n">
-        <v>55.91</v>
+        <v>165.18</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3600000000000065</v>
+        <v>0.6399999999999864</v>
       </c>
       <c r="J55" t="n">
-        <v>0.64</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="56">
@@ -2527,7 +2539,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C56" t="b">
@@ -2538,7 +2550,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2547,16 +2559,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>55.73</v>
+        <v>166.66</v>
       </c>
       <c r="H56" t="n">
-        <v>56.12</v>
+        <v>166.86</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3900000000000006</v>
+        <v>-0.2000000000000171</v>
       </c>
       <c r="J56" t="n">
-        <v>0.7000000000000001</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="57">
@@ -2565,7 +2577,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C57" t="b">
@@ -2585,16 +2597,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>56.53</v>
+        <v>1033.4</v>
       </c>
       <c r="H57" t="n">
-        <v>56.85</v>
+        <v>1028.2</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.3200000000000003</v>
+        <v>5.200000000000045</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.5700000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58">
@@ -2603,7 +2615,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C58" t="b">
@@ -2614,7 +2626,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2623,16 +2635,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>56.7</v>
+        <v>1037.8</v>
       </c>
       <c r="H58" t="n">
-        <v>56.81</v>
+        <v>1036.4</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1099999999999994</v>
+        <v>1.399999999999864</v>
       </c>
       <c r="J58" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="59">
@@ -2641,7 +2653,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C59" t="b">
@@ -2661,16 +2673,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>141.34</v>
+        <v>1042.6</v>
       </c>
       <c r="H59" t="n">
-        <v>141.28</v>
+        <v>1048.8</v>
       </c>
       <c r="I59" t="n">
-        <v>0.06000000000000227</v>
+        <v>-6.200000000000045</v>
       </c>
       <c r="J59" t="n">
-        <v>0.04</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="60">
@@ -2679,7 +2691,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C60" t="b">
@@ -2699,16 +2711,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>140.82</v>
+        <v>1044</v>
       </c>
       <c r="H60" t="n">
-        <v>141.68</v>
+        <v>1047.4</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8600000000000136</v>
+        <v>3.400000000000091</v>
       </c>
       <c r="J60" t="n">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="61">
@@ -2717,7 +2729,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C61" t="b">
@@ -2737,16 +2749,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>51.88</v>
+        <v>497.35</v>
       </c>
       <c r="H61" t="n">
-        <v>51.89</v>
+        <v>502.6</v>
       </c>
       <c r="I61" t="n">
-        <v>0.00999999999999801</v>
+        <v>5.25</v>
       </c>
       <c r="J61" t="n">
-        <v>0.02</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="62">
@@ -2755,7 +2767,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C62" t="b">
@@ -2766,7 +2778,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2775,16 +2787,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>51.03</v>
+        <v>505.9</v>
       </c>
       <c r="H62" t="n">
-        <v>52.13</v>
+        <v>502.8</v>
       </c>
       <c r="I62" t="n">
-        <v>1.100000000000001</v>
+        <v>3.099999999999966</v>
       </c>
       <c r="J62" t="n">
-        <v>2.16</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="63">
@@ -2793,7 +2805,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C63" t="b">
@@ -2813,16 +2825,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>53.06</v>
+        <v>507.5</v>
       </c>
       <c r="H63" t="n">
-        <v>53.56</v>
+        <v>509.05</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.5</v>
+        <v>-1.550000000000011</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.9400000000000001</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="64">
@@ -2831,7 +2843,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C64" t="b">
@@ -2842,7 +2854,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2851,16 +2863,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>53.49</v>
+        <v>511.2</v>
       </c>
       <c r="H64" t="n">
-        <v>53.6</v>
+        <v>510.75</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1099999999999994</v>
+        <v>0.4499999999999886</v>
       </c>
       <c r="J64" t="n">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="65">
@@ -2869,7 +2881,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C65" t="b">
@@ -2889,16 +2901,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>54.01</v>
+        <v>513.3</v>
       </c>
       <c r="H65" t="n">
-        <v>53.76</v>
+        <v>511.85</v>
       </c>
       <c r="I65" t="n">
-        <v>0.25</v>
+        <v>1.449999999999932</v>
       </c>
       <c r="J65" t="n">
-        <v>0.46</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="66">
@@ -2907,7 +2919,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C66" t="b">
@@ -2927,16 +2939,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>362</v>
+        <v>509.95</v>
       </c>
       <c r="H66" t="n">
-        <v>367.23</v>
+        <v>511.4</v>
       </c>
       <c r="I66" t="n">
-        <v>5.230000000000018</v>
+        <v>1.449999999999989</v>
       </c>
       <c r="J66" t="n">
-        <v>1.44</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="67">
@@ -2945,7 +2957,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C67" t="b">
@@ -2965,16 +2977,16 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>368.93</v>
+        <v>34.675</v>
       </c>
       <c r="H67" t="n">
-        <v>370.65</v>
+        <v>34.62</v>
       </c>
       <c r="I67" t="n">
-        <v>-1.71999999999997</v>
+        <v>0.05499999999999972</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.47</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="68">
@@ -2983,7 +2995,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C68" t="b">
@@ -3003,16 +3015,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>372.74</v>
+        <v>34.985</v>
       </c>
       <c r="H68" t="n">
-        <v>372.73</v>
+        <v>34.73</v>
       </c>
       <c r="I68" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.2550000000000026</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="69">
@@ -3021,7 +3033,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C69" t="b">
@@ -3032,7 +3044,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3041,16 +3053,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.09546</v>
+        <v>287.36</v>
       </c>
       <c r="H69" t="n">
-        <v>0.09594000000000001</v>
+        <v>287.39</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0004800000000000082</v>
+        <v>-0.02999999999997272</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="70">
@@ -3059,7 +3071,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C70" t="b">
@@ -3079,16 +3091,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.0965</v>
+        <v>288.49</v>
       </c>
       <c r="H70" t="n">
-        <v>0.09686</v>
+        <v>289.42</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.0003599999999999992</v>
+        <v>-0.9300000000000068</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.37</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="71">
@@ -3097,13 +3109,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>short</t>
@@ -3115,16 +3129,16 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.09728000000000001</v>
+        <v>56.27</v>
       </c>
       <c r="H71" t="n">
-        <v>0.09762</v>
+        <v>55.91</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.0003399999999999931</v>
+        <v>0.3600000000000065</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.35</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="72">
@@ -3133,7 +3147,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C72" t="b">
@@ -3153,16 +3167,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2980.6</v>
+        <v>55.73</v>
       </c>
       <c r="H72" t="n">
-        <v>2988.65</v>
+        <v>56.12</v>
       </c>
       <c r="I72" t="n">
-        <v>8.050000000000182</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="J72" t="n">
-        <v>0.27</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="73">
@@ -3171,7 +3185,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C73" t="b">
@@ -3182,7 +3196,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3191,16 +3205,16 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2977.3</v>
+        <v>56.53</v>
       </c>
       <c r="H73" t="n">
-        <v>2982.25</v>
+        <v>56.85</v>
       </c>
       <c r="I73" t="n">
-        <v>4.949999999999818</v>
+        <v>-0.3200000000000003</v>
       </c>
       <c r="J73" t="n">
-        <v>0.17</v>
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -3209,7 +3223,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C74" t="b">
@@ -3220,7 +3234,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3229,16 +3243,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2992.25</v>
+        <v>56.7</v>
       </c>
       <c r="H74" t="n">
-        <v>2995.7</v>
+        <v>56.81</v>
       </c>
       <c r="I74" t="n">
-        <v>-3.449999999999818</v>
+        <v>0.1099999999999994</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.12</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="75">
@@ -3247,7 +3261,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C75" t="b">
@@ -3267,16 +3281,16 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3007.8</v>
+        <v>141.34</v>
       </c>
       <c r="H75" t="n">
-        <v>3010.15</v>
+        <v>141.28</v>
       </c>
       <c r="I75" t="n">
-        <v>-2.349999999999909</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="76">
@@ -3285,7 +3299,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C76" t="b">
@@ -3296,7 +3310,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3305,16 +3319,16 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3020</v>
+        <v>140.82</v>
       </c>
       <c r="H76" t="n">
-        <v>3013</v>
+        <v>141.68</v>
       </c>
       <c r="I76" t="n">
-        <v>7</v>
+        <v>0.8600000000000136</v>
       </c>
       <c r="J76" t="n">
-        <v>0.23</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="77">
@@ -3323,7 +3337,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C77" t="b">
@@ -3334,7 +3348,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3343,16 +3357,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3020.9</v>
+        <v>644.2</v>
       </c>
       <c r="H77" t="n">
-        <v>3015.85</v>
+        <v>647.5</v>
       </c>
       <c r="I77" t="n">
-        <v>5.050000000000182</v>
+        <v>3.299999999999955</v>
       </c>
       <c r="J77" t="n">
-        <v>0.17</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="78">
@@ -3361,7 +3375,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C78" t="b">
@@ -3381,16 +3395,16 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3022.65</v>
+        <v>650</v>
       </c>
       <c r="H78" t="n">
-        <v>3013.35</v>
+        <v>648.8</v>
       </c>
       <c r="I78" t="n">
-        <v>9.300000000000182</v>
+        <v>1.200000000000045</v>
       </c>
       <c r="J78" t="n">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="79">
@@ -3399,7 +3413,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C79" t="b">
@@ -3410,7 +3424,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3419,16 +3433,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>34.675</v>
+        <v>646</v>
       </c>
       <c r="H79" t="n">
-        <v>34.62</v>
+        <v>643</v>
       </c>
       <c r="I79" t="n">
-        <v>0.05499999999999972</v>
+        <v>-3</v>
       </c>
       <c r="J79" t="n">
-        <v>0.16</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="80">
@@ -3437,15 +3451,13 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
-      <c r="D80" t="b">
-        <v>1</v>
-      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>short</t>
@@ -3457,16 +3469,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>34.985</v>
+        <v>0.09728000000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>34.73</v>
+        <v>0.09762</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2550000000000026</v>
+        <v>-0.0003399999999999931</v>
       </c>
       <c r="J80" t="n">
-        <v>0.73</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="81">
@@ -3475,15 +3487,13 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TATN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
-      <c r="D81" t="b">
-        <v>1</v>
-      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>long</t>
@@ -3495,16 +3505,16 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>644.2</v>
+        <v>166.5</v>
       </c>
       <c r="H81" t="n">
-        <v>647.5</v>
+        <v>165.86</v>
       </c>
       <c r="I81" t="n">
-        <v>3.299999999999955</v>
+        <v>-0.6399999999999864</v>
       </c>
       <c r="J81" t="n">
-        <v>0.51</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="82">
@@ -3513,15 +3523,13 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TATN</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
-      <c r="D82" t="b">
-        <v>1</v>
-      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
           <t>short</t>
@@ -3533,54 +3541,16 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>650</v>
+        <v>290.2</v>
       </c>
       <c r="H82" t="n">
-        <v>648.8</v>
+        <v>290.84</v>
       </c>
       <c r="I82" t="n">
-        <v>1.200000000000045</v>
+        <v>-0.6399999999999864</v>
       </c>
       <c r="J82" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>TATN</t>
-        </is>
-      </c>
-      <c r="C83" t="b">
-        <v>1</v>
-      </c>
-      <c r="D83" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>646</v>
-      </c>
-      <c r="H83" t="n">
-        <v>643</v>
-      </c>
-      <c r="I83" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J83" t="n">
-        <v>-0.46</v>
+        <v>-0.22</v>
       </c>
     </row>
   </sheetData>
@@ -3594,7 +3564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3905,13 +3875,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002199999999999841</v>
+        <v>-0.000219999999999998</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.333333333332803e-05</v>
+        <v>-7.333333333333265e-05</v>
       </c>
       <c r="E14" t="n">
         <v>-0.22</v>
@@ -4029,24 +3999,6 @@
       <c r="F19" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
